--- a/premier_league_analise_gols_arquivo_de_saida.xlsx
+++ b/premier_league_analise_gols_arquivo_de_saida.xlsx
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -595,28 +595,28 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4">
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -659,16 +659,16 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5">
@@ -678,31 +678,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -711,16 +711,16 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
@@ -818,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O7" t="n">
         <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10">
@@ -938,28 +938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1011,13 +1011,13 @@
         <v>0.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1042,31 +1042,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
         <v>3</v>
@@ -1075,16 +1075,16 @@
         <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="13">
@@ -1094,19 +1094,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1115,16 +1115,16 @@
         <v>1.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -1133,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14">
@@ -1146,19 +1146,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1167,16 +1167,16 @@
         <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O15" t="n">
         <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1250,31 +1250,31 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
       <c r="H16" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1283,16 +1283,16 @@
         <v>0.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P16" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
@@ -1354,19 +1354,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1375,16 +1375,16 @@
         <v>0.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -1393,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19">
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1427,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -1445,7 +1445,7 @@
         <v>1.5</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1482,13 +1482,13 @@
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         <v>0.5</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="21">
@@ -1510,28 +1510,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1543,16 +1543,16 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/premier_league_analise_gols_arquivo_de_saida.xlsx
+++ b/premier_league_analise_gols_arquivo_de_saida.xlsx
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -555,16 +555,16 @@
         <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -751,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>0.5</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -855,16 +855,16 @@
         <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1302,49 +1302,49 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O17" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
       <c r="P17" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">

--- a/premier_league_analise_gols_arquivo_de_saida.xlsx
+++ b/premier_league_analise_gols_arquivo_de_saida.xlsx
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -543,16 +543,16 @@
         <v>1.666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -574,28 +574,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -607,16 +607,16 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -647,13 +647,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -678,16 +678,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -699,13 +699,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -717,10 +717,10 @@
         <v>2.333333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -730,49 +730,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O6" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
       <c r="P6" t="n">
-        <v>0.8</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -803,16 +803,16 @@
         <v>3.333333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -834,31 +834,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -867,13 +867,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -886,31 +886,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -919,16 +919,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="10">
@@ -938,19 +938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -959,16 +959,16 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="M10" t="n">
         <v>8</v>
@@ -977,10 +977,10 @@
         <v>2.666666666666667</v>
       </c>
       <c r="O10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -1026,13 +1026,13 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -1042,19 +1042,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1063,16 +1063,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -1081,10 +1081,10 @@
         <v>1.666666666666667</v>
       </c>
       <c r="O12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P12" t="n">
-        <v>1.6</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1094,31 +1094,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1127,16 +1127,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1146,28 +1146,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1179,16 +1179,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1222,13 +1222,13 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -1237,10 +1237,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1250,19 +1250,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1271,16 +1271,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -1289,10 +1289,10 @@
         <v>1.666666666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" t="n">
-        <v>1.2</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -1326,10 +1326,10 @@
         <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -1354,31 +1354,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -1387,16 +1387,16 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1406,31 +1406,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1442,13 +1442,13 @@
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1458,28 +1458,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1491,16 +1491,16 @@
         <v>2.666666666666667</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1531,16 +1531,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M21" t="n">
         <v>6</v>
@@ -1549,10 +1549,10 @@
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.8</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/premier_league_analise_gols_arquivo_de_saida.xlsx
+++ b/premier_league_analise_gols_arquivo_de_saida.xlsx
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>1.166666666666667</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -543,13 +543,13 @@
         <v>1.666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="4">
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.333333333333333</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -659,16 +659,16 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="5">
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -699,16 +699,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.333333333333333</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>7</v>
@@ -717,10 +717,10 @@
         <v>2.333333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.666666666666667</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -751,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>1.666666666666667</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -769,10 +769,10 @@
         <v>1.666666666666667</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P6" t="n">
-        <v>1.333333333333333</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="7">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
       <c r="F7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -803,16 +803,16 @@
         <v>3.333333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.166666666666667</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="8">
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>1.333333333333333</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -855,16 +855,16 @@
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>2.333333333333333</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
@@ -873,10 +873,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="9">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -910,13 +910,13 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -925,10 +925,10 @@
         <v>1.666666666666667</v>
       </c>
       <c r="O9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="10">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -962,13 +962,13 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>2.333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="M10" t="n">
         <v>8</v>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="11">
@@ -990,49 +990,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O11" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5</v>
-      </c>
       <c r="P11" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="12">
@@ -1042,31 +1042,31 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
       <c r="J12" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
@@ -1075,16 +1075,16 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P12" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1094,19 +1094,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -1115,16 +1115,16 @@
         <v>1.666666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.333333333333333</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>8</v>
@@ -1136,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.714285714285714</v>
       </c>
     </row>
     <row r="14">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1182,13 +1182,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="15">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1234,13 +1234,13 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="O15" t="n">
         <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>1.333333333333333</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="16">
@@ -1250,31 +1250,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.333333333333333</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1286,13 +1286,13 @@
         <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="O16" t="n">
         <v>7</v>
       </c>
       <c r="P16" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1302,49 +1302,49 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O17" t="n">
         <v>6</v>
       </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5</v>
-      </c>
       <c r="P17" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="18">
@@ -1354,31 +1354,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -1387,16 +1387,16 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="19">
@@ -1406,28 +1406,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1439,16 +1439,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="20">
@@ -1458,19 +1458,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
       <c r="F20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1479,16 +1479,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>2.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
@@ -1497,10 +1497,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P20" t="n">
-        <v>1.666666666666667</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="21">
@@ -1510,31 +1510,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="K21" t="n">
         <v>10</v>
@@ -1543,16 +1543,16 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
